--- a/excel.xlsx
+++ b/excel.xlsx
@@ -21,7 +21,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>hello</t>
+    <t>hellohello
+hello
+hello
+hello
+heloleldel</t>
   </si>
 </sst>
 </file>
@@ -68,7 +72,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,7 +360,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
